--- a/int_co2_pipeline.xlsx
+++ b/int_co2_pipeline.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367ADDB1-DC5F-44AF-9AA4-FEA39AECCC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E8C8A8-9937-47B4-B391-85D4A0B07E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,9 +19,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -223,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -248,13 +247,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -542,26 +534,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC244"/>
+  <dimension ref="A1:H244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.08984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.36328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7265625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="1"/>
-    <col min="8" max="8" width="14.54296875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7265625" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -586,16 +578,8 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>30</v>
       </c>
@@ -621,7 +605,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>30</v>
       </c>
@@ -646,14 +630,8 @@
       <c r="H3" s="5">
         <v>2.6</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>30</v>
       </c>
@@ -678,14 +656,8 @@
       <c r="H4" s="5">
         <v>2.1</v>
       </c>
-      <c r="J4" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>30</v>
       </c>
@@ -710,14 +682,8 @@
       <c r="H5" s="5">
         <v>3.1</v>
       </c>
-      <c r="J5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>30</v>
       </c>
@@ -742,14 +708,8 @@
       <c r="H6" s="5">
         <v>2.6</v>
       </c>
-      <c r="J6" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>30</v>
       </c>
@@ -774,14 +734,8 @@
       <c r="H7" s="5">
         <v>2.1</v>
       </c>
-      <c r="J7" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>30</v>
       </c>
@@ -806,14 +760,8 @@
       <c r="H8" s="5">
         <v>3.1</v>
       </c>
-      <c r="J8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>30</v>
       </c>
@@ -838,14 +786,8 @@
       <c r="H9" s="5">
         <v>2.6</v>
       </c>
-      <c r="J9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>30</v>
       </c>
@@ -870,24 +812,8 @@
       <c r="H10" s="5">
         <v>2.1</v>
       </c>
-      <c r="J10" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>30</v>
       </c>
@@ -912,18 +838,8 @@
       <c r="H11" s="5">
         <v>4.0999999999999996</v>
       </c>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>30</v>
       </c>
@@ -948,18 +864,8 @@
       <c r="H12" s="5">
         <v>3.4</v>
       </c>
-      <c r="T12" s="10"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="10"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>30</v>
       </c>
@@ -984,18 +890,8 @@
       <c r="H13" s="5">
         <v>2.7</v>
       </c>
-      <c r="T13" s="11"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="10"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>30</v>
       </c>
@@ -1020,18 +916,8 @@
       <c r="H14" s="5">
         <v>4.0999999999999996</v>
       </c>
-      <c r="T14" s="11"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="10"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>30</v>
       </c>
@@ -1056,18 +942,8 @@
       <c r="H15" s="5">
         <v>3.4</v>
       </c>
-      <c r="T15" s="11"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="10"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>30</v>
       </c>
@@ -1092,18 +968,8 @@
       <c r="H16" s="5">
         <v>2.7</v>
       </c>
-      <c r="T16" s="11"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="10"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>30</v>
       </c>
@@ -1128,18 +994,8 @@
       <c r="H17" s="5">
         <v>4</v>
       </c>
-      <c r="T17" s="11"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
-      <c r="AB17" s="9"/>
-      <c r="AC17" s="10"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>30</v>
       </c>
@@ -1164,18 +1020,8 @@
       <c r="H18" s="5">
         <v>3.4</v>
       </c>
-      <c r="T18" s="11"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="10"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>30</v>
       </c>
@@ -1200,18 +1046,8 @@
       <c r="H19" s="5">
         <v>2.7</v>
       </c>
-      <c r="T19" s="11"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="9"/>
-      <c r="AB19" s="9"/>
-      <c r="AC19" s="10"/>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>30</v>
       </c>
@@ -1236,18 +1072,8 @@
       <c r="H20" s="5">
         <v>5</v>
       </c>
-      <c r="T20" s="11"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="10"/>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>30</v>
       </c>
@@ -1272,18 +1098,8 @@
       <c r="H21" s="5">
         <v>4.0999999999999996</v>
       </c>
-      <c r="T21" s="11"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="10"/>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>30</v>
       </c>
@@ -1308,18 +1124,8 @@
       <c r="H22" s="5">
         <v>3.3</v>
       </c>
-      <c r="T22" s="11"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="10"/>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>30</v>
       </c>
@@ -1344,18 +1150,8 @@
       <c r="H23" s="5">
         <v>4.9000000000000004</v>
       </c>
-      <c r="T23" s="11"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="10"/>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>30</v>
       </c>
@@ -1380,18 +1176,8 @@
       <c r="H24" s="5">
         <v>4.0999999999999996</v>
       </c>
-      <c r="T24" s="11"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="9"/>
-      <c r="AB24" s="9"/>
-      <c r="AC24" s="10"/>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>30</v>
       </c>
@@ -1416,18 +1202,8 @@
       <c r="H25" s="5">
         <v>3.3</v>
       </c>
-      <c r="T25" s="11"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="9"/>
-      <c r="AA25" s="9"/>
-      <c r="AB25" s="9"/>
-      <c r="AC25" s="10"/>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>30</v>
       </c>
@@ -1452,18 +1228,8 @@
       <c r="H26" s="5">
         <v>4.9000000000000004</v>
       </c>
-      <c r="T26" s="11"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="9"/>
-      <c r="AB26" s="9"/>
-      <c r="AC26" s="10"/>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>30</v>
       </c>
@@ -1488,18 +1254,8 @@
       <c r="H27" s="5">
         <v>4.0999999999999996</v>
       </c>
-      <c r="T27" s="11"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
-      <c r="AB27" s="9"/>
-      <c r="AC27" s="10"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>30</v>
       </c>
@@ -1524,18 +1280,8 @@
       <c r="H28" s="5">
         <v>3.2</v>
       </c>
-      <c r="T28" s="11"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
-      <c r="AA28" s="9"/>
-      <c r="AB28" s="9"/>
-      <c r="AC28" s="10"/>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>30</v>
       </c>
@@ -1560,18 +1306,8 @@
       <c r="H29" s="5">
         <v>3.3</v>
       </c>
-      <c r="T29" s="11"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="9"/>
-      <c r="AA29" s="9"/>
-      <c r="AB29" s="9"/>
-      <c r="AC29" s="10"/>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>30</v>
       </c>
@@ -1596,18 +1332,8 @@
       <c r="H30" s="5">
         <v>2.8</v>
       </c>
-      <c r="T30" s="11"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="9"/>
-      <c r="AA30" s="9"/>
-      <c r="AB30" s="9"/>
-      <c r="AC30" s="10"/>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -1632,18 +1358,8 @@
       <c r="H31" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="T31" s="11"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="9"/>
-      <c r="Z31" s="9"/>
-      <c r="AA31" s="9"/>
-      <c r="AB31" s="9"/>
-      <c r="AC31" s="10"/>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>30</v>
       </c>
@@ -1668,18 +1384,8 @@
       <c r="H32" s="5">
         <v>3.3</v>
       </c>
-      <c r="T32" s="11"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="9"/>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="10"/>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>30</v>
       </c>
@@ -1704,18 +1410,8 @@
       <c r="H33" s="5">
         <v>2.7</v>
       </c>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="10"/>
-      <c r="W33" s="10"/>
-      <c r="X33" s="10"/>
-      <c r="Y33" s="10"/>
-      <c r="Z33" s="10"/>
-      <c r="AA33" s="10"/>
-      <c r="AB33" s="10"/>
-      <c r="AC33" s="10"/>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>30</v>
       </c>
@@ -1741,7 +1437,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>30</v>
       </c>
@@ -1767,7 +1463,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>30</v>
       </c>
@@ -1793,7 +1489,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>30</v>
       </c>
@@ -1819,7 +1515,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>30</v>
       </c>
@@ -1845,7 +1541,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>30</v>
       </c>
@@ -1871,7 +1567,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>30</v>
       </c>
@@ -1897,7 +1593,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>30</v>
       </c>
@@ -1923,7 +1619,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>30</v>
       </c>
@@ -1949,7 +1645,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>30</v>
       </c>
@@ -1975,7 +1671,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>30</v>
       </c>
@@ -2001,7 +1697,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>30</v>
       </c>
@@ -2027,7 +1723,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>30</v>
       </c>
@@ -2053,7 +1749,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>30</v>
       </c>
@@ -2079,7 +1775,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>30</v>
       </c>
@@ -2105,7 +1801,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>30</v>
       </c>
@@ -2131,7 +1827,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>30</v>
       </c>
@@ -2157,7 +1853,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>30</v>
       </c>
@@ -2183,7 +1879,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>30</v>
       </c>
@@ -2209,7 +1905,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>30</v>
       </c>
@@ -2235,7 +1931,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>30</v>
       </c>
@@ -2261,7 +1957,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>30</v>
       </c>
@@ -2287,7 +1983,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>30</v>
       </c>
@@ -2313,7 +2009,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>30</v>
       </c>
@@ -2339,7 +2035,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>30</v>
       </c>
@@ -2365,7 +2061,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>30</v>
       </c>
@@ -2391,7 +2087,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>30</v>
       </c>
@@ -2417,7 +2113,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>30</v>
       </c>
@@ -2443,7 +2139,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>30</v>
       </c>
@@ -2469,7 +2165,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>30</v>
       </c>
@@ -2495,7 +2191,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>30</v>
       </c>
@@ -2521,7 +2217,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>30</v>
       </c>
@@ -2547,7 +2243,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>30</v>
       </c>
@@ -2573,7 +2269,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>30</v>
       </c>
@@ -2599,7 +2295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>30</v>
       </c>
@@ -2625,7 +2321,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>30</v>
       </c>
@@ -2651,7 +2347,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>30</v>
       </c>
@@ -2677,7 +2373,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>30</v>
       </c>
@@ -2703,7 +2399,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>30</v>
       </c>
@@ -2729,7 +2425,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>30</v>
       </c>
@@ -2755,7 +2451,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>30</v>
       </c>
@@ -2781,7 +2477,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>30</v>
       </c>
@@ -2807,7 +2503,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>30</v>
       </c>
@@ -2833,7 +2529,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>30</v>
       </c>
@@ -2859,7 +2555,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>30</v>
       </c>
@@ -2885,7 +2581,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>30</v>
       </c>
@@ -2911,7 +2607,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>30</v>
       </c>
@@ -2937,7 +2633,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>30</v>
       </c>
@@ -2963,7 +2659,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>30</v>
       </c>
@@ -2989,7 +2685,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <v>40</v>
       </c>
@@ -3015,7 +2711,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <v>40</v>
       </c>
@@ -3041,7 +2737,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>40</v>
       </c>
@@ -3067,7 +2763,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <v>40</v>
       </c>
@@ -3093,7 +2789,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <v>40</v>
       </c>
@@ -3119,7 +2815,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <v>40</v>
       </c>
@@ -3145,7 +2841,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>40</v>
       </c>
@@ -3171,7 +2867,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <v>40</v>
       </c>
@@ -3197,7 +2893,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <v>40</v>
       </c>
@@ -3223,7 +2919,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
         <v>40</v>
       </c>
@@ -3249,7 +2945,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <v>40</v>
       </c>
@@ -3275,7 +2971,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
         <v>40</v>
       </c>
@@ -3301,7 +2997,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <v>40</v>
       </c>
@@ -3327,7 +3023,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
         <v>40</v>
       </c>
@@ -3353,7 +3049,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <v>40</v>
       </c>
@@ -3379,7 +3075,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <v>40</v>
       </c>
@@ -3405,7 +3101,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>40</v>
       </c>
@@ -3431,7 +3127,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <v>40</v>
       </c>
@@ -3457,7 +3153,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <v>40</v>
       </c>
@@ -3483,7 +3179,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="7">
         <v>40</v>
       </c>
@@ -3509,7 +3205,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <v>40</v>
       </c>
@@ -3535,7 +3231,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="7">
         <v>40</v>
       </c>
@@ -3561,7 +3257,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
         <v>40</v>
       </c>
@@ -3587,7 +3283,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="7">
         <v>40</v>
       </c>
@@ -3613,7 +3309,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="7">
         <v>40</v>
       </c>
@@ -3639,7 +3335,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="7">
         <v>40</v>
       </c>
@@ -3665,7 +3361,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
         <v>40</v>
       </c>
@@ -3691,7 +3387,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="7">
         <v>40</v>
       </c>
@@ -3717,7 +3413,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
         <v>40</v>
       </c>
@@ -3743,7 +3439,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="7">
         <v>40</v>
       </c>
@@ -3769,7 +3465,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
         <v>40</v>
       </c>
@@ -3795,7 +3491,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="7">
         <v>40</v>
       </c>
@@ -3821,7 +3517,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
         <v>40</v>
       </c>
@@ -3847,7 +3543,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
         <v>40</v>
       </c>
@@ -3873,7 +3569,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
         <v>40</v>
       </c>
@@ -3899,7 +3595,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="7">
         <v>40</v>
       </c>
@@ -3925,7 +3621,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="7">
         <v>40</v>
       </c>
@@ -3951,7 +3647,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="7">
         <v>40</v>
       </c>
@@ -3977,7 +3673,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
         <v>40</v>
       </c>
@@ -4003,7 +3699,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="7">
         <v>40</v>
       </c>
@@ -4029,7 +3725,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="7">
         <v>40</v>
       </c>
@@ -4055,7 +3751,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="7">
         <v>40</v>
       </c>
@@ -4081,7 +3777,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="7">
         <v>40</v>
       </c>
@@ -4107,7 +3803,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="7">
         <v>40</v>
       </c>
@@ -4133,7 +3829,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="7">
         <v>40</v>
       </c>
@@ -4159,7 +3855,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="7">
         <v>40</v>
       </c>
@@ -4185,7 +3881,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="7">
         <v>40</v>
       </c>
@@ -4211,7 +3907,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="7">
         <v>40</v>
       </c>
@@ -4237,7 +3933,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="7">
         <v>40</v>
       </c>
@@ -4263,7 +3959,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="7">
         <v>40</v>
       </c>
@@ -4289,7 +3985,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="7">
         <v>40</v>
       </c>
@@ -4315,7 +4011,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="7">
         <v>40</v>
       </c>
@@ -4341,7 +4037,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="7">
         <v>40</v>
       </c>
@@ -4367,7 +4063,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="7">
         <v>40</v>
       </c>
@@ -4393,7 +4089,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="7">
         <v>40</v>
       </c>
@@ -4419,7 +4115,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="7">
         <v>40</v>
       </c>
@@ -4445,7 +4141,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="7">
         <v>40</v>
       </c>
@@ -4471,7 +4167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="7">
         <v>40</v>
       </c>
@@ -4497,7 +4193,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="7">
         <v>40</v>
       </c>
@@ -4523,7 +4219,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="7">
         <v>40</v>
       </c>
@@ -4549,7 +4245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="7">
         <v>40</v>
       </c>
@@ -4575,7 +4271,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="7">
         <v>40</v>
       </c>
@@ -4601,7 +4297,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="7">
         <v>40</v>
       </c>
@@ -4627,7 +4323,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="7">
         <v>40</v>
       </c>
@@ -4653,7 +4349,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="7">
         <v>40</v>
       </c>
@@ -4679,7 +4375,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="7">
         <v>40</v>
       </c>
@@ -4705,7 +4401,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="7">
         <v>40</v>
       </c>
@@ -4731,7 +4427,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="7">
         <v>40</v>
       </c>
@@ -4757,7 +4453,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="7">
         <v>40</v>
       </c>
@@ -4783,7 +4479,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="7">
         <v>40</v>
       </c>
@@ -4809,7 +4505,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="7">
         <v>40</v>
       </c>
@@ -4835,7 +4531,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="7">
         <v>40</v>
       </c>
@@ -4861,7 +4557,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="7">
         <v>40</v>
       </c>
@@ -4887,7 +4583,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="7">
         <v>40</v>
       </c>
@@ -4913,7 +4609,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="7">
         <v>40</v>
       </c>
@@ -4939,7 +4635,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="7">
         <v>40</v>
       </c>
@@ -4965,7 +4661,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="7">
         <v>40</v>
       </c>
@@ -4991,7 +4687,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="7">
         <v>40</v>
       </c>
@@ -5017,7 +4713,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="7">
         <v>40</v>
       </c>
@@ -5043,7 +4739,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="7">
         <v>40</v>
       </c>
@@ -5069,7 +4765,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="7">
         <v>40</v>
       </c>
@@ -5095,20 +4791,20 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A164" s="12">
-        <v>50</v>
-      </c>
-      <c r="B164" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="C164" s="12">
-        <v>1</v>
-      </c>
-      <c r="D164" s="12">
-        <v>60</v>
-      </c>
-      <c r="E164" s="12">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="9">
+        <v>50</v>
+      </c>
+      <c r="B164" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="C164" s="9">
+        <v>1</v>
+      </c>
+      <c r="D164" s="9">
+        <v>60</v>
+      </c>
+      <c r="E164" s="9">
         <v>40</v>
       </c>
       <c r="F164" s="5">
@@ -5121,20 +4817,20 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A165" s="12">
-        <v>50</v>
-      </c>
-      <c r="B165" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="C165" s="12">
-        <v>1</v>
-      </c>
-      <c r="D165" s="12">
-        <v>60</v>
-      </c>
-      <c r="E165" s="12">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="9">
+        <v>50</v>
+      </c>
+      <c r="B165" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="C165" s="9">
+        <v>1</v>
+      </c>
+      <c r="D165" s="9">
+        <v>60</v>
+      </c>
+      <c r="E165" s="9">
         <v>50</v>
       </c>
       <c r="F165" s="5">
@@ -5147,20 +4843,20 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A166" s="12">
-        <v>50</v>
-      </c>
-      <c r="B166" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="C166" s="12">
-        <v>1</v>
-      </c>
-      <c r="D166" s="12">
-        <v>60</v>
-      </c>
-      <c r="E166" s="12">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="9">
+        <v>50</v>
+      </c>
+      <c r="B166" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="C166" s="9">
+        <v>1</v>
+      </c>
+      <c r="D166" s="9">
+        <v>60</v>
+      </c>
+      <c r="E166" s="9">
         <v>60</v>
       </c>
       <c r="F166" s="5">
@@ -5173,20 +4869,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A167" s="12">
-        <v>50</v>
-      </c>
-      <c r="B167" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="C167" s="12">
-        <v>1</v>
-      </c>
-      <c r="D167" s="12">
-        <v>65</v>
-      </c>
-      <c r="E167" s="12">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="9">
+        <v>50</v>
+      </c>
+      <c r="B167" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="C167" s="9">
+        <v>1</v>
+      </c>
+      <c r="D167" s="9">
+        <v>65</v>
+      </c>
+      <c r="E167" s="9">
         <v>40</v>
       </c>
       <c r="F167" s="5">
@@ -5199,20 +4895,20 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A168" s="12">
-        <v>50</v>
-      </c>
-      <c r="B168" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="C168" s="12">
-        <v>1</v>
-      </c>
-      <c r="D168" s="12">
-        <v>65</v>
-      </c>
-      <c r="E168" s="12">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="9">
+        <v>50</v>
+      </c>
+      <c r="B168" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="C168" s="9">
+        <v>1</v>
+      </c>
+      <c r="D168" s="9">
+        <v>65</v>
+      </c>
+      <c r="E168" s="9">
         <v>50</v>
       </c>
       <c r="F168" s="5">
@@ -5225,20 +4921,20 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A169" s="12">
-        <v>50</v>
-      </c>
-      <c r="B169" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="C169" s="12">
-        <v>1</v>
-      </c>
-      <c r="D169" s="12">
-        <v>65</v>
-      </c>
-      <c r="E169" s="12">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="9">
+        <v>50</v>
+      </c>
+      <c r="B169" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="C169" s="9">
+        <v>1</v>
+      </c>
+      <c r="D169" s="9">
+        <v>65</v>
+      </c>
+      <c r="E169" s="9">
         <v>60</v>
       </c>
       <c r="F169" s="5">
@@ -5251,20 +4947,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A170" s="12">
-        <v>50</v>
-      </c>
-      <c r="B170" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="C170" s="12">
-        <v>1</v>
-      </c>
-      <c r="D170" s="12">
-        <v>70</v>
-      </c>
-      <c r="E170" s="12">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="9">
+        <v>50</v>
+      </c>
+      <c r="B170" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="C170" s="9">
+        <v>1</v>
+      </c>
+      <c r="D170" s="9">
+        <v>70</v>
+      </c>
+      <c r="E170" s="9">
         <v>40</v>
       </c>
       <c r="F170" s="5">
@@ -5277,20 +4973,20 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A171" s="12">
-        <v>50</v>
-      </c>
-      <c r="B171" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="C171" s="12">
-        <v>1</v>
-      </c>
-      <c r="D171" s="12">
-        <v>70</v>
-      </c>
-      <c r="E171" s="12">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="9">
+        <v>50</v>
+      </c>
+      <c r="B171" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="C171" s="9">
+        <v>1</v>
+      </c>
+      <c r="D171" s="9">
+        <v>70</v>
+      </c>
+      <c r="E171" s="9">
         <v>50</v>
       </c>
       <c r="F171" s="5">
@@ -5303,20 +4999,20 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A172" s="12">
-        <v>50</v>
-      </c>
-      <c r="B172" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="C172" s="12">
-        <v>1</v>
-      </c>
-      <c r="D172" s="12">
-        <v>70</v>
-      </c>
-      <c r="E172" s="12">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="9">
+        <v>50</v>
+      </c>
+      <c r="B172" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="C172" s="9">
+        <v>1</v>
+      </c>
+      <c r="D172" s="9">
+        <v>70</v>
+      </c>
+      <c r="E172" s="9">
         <v>60</v>
       </c>
       <c r="F172" s="5">
@@ -5329,20 +5025,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A173" s="12">
-        <v>50</v>
-      </c>
-      <c r="B173" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="C173" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="D173" s="12">
-        <v>60</v>
-      </c>
-      <c r="E173" s="12">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="9">
+        <v>50</v>
+      </c>
+      <c r="B173" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="C173" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D173" s="9">
+        <v>60</v>
+      </c>
+      <c r="E173" s="9">
         <v>40</v>
       </c>
       <c r="F173" s="5">
@@ -5355,20 +5051,20 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A174" s="12">
-        <v>50</v>
-      </c>
-      <c r="B174" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="C174" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="D174" s="12">
-        <v>60</v>
-      </c>
-      <c r="E174" s="12">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="9">
+        <v>50</v>
+      </c>
+      <c r="B174" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="C174" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D174" s="9">
+        <v>60</v>
+      </c>
+      <c r="E174" s="9">
         <v>50</v>
       </c>
       <c r="F174" s="5">
@@ -5381,20 +5077,20 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A175" s="12">
-        <v>50</v>
-      </c>
-      <c r="B175" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="C175" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="D175" s="12">
-        <v>60</v>
-      </c>
-      <c r="E175" s="12">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="9">
+        <v>50</v>
+      </c>
+      <c r="B175" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="C175" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D175" s="9">
+        <v>60</v>
+      </c>
+      <c r="E175" s="9">
         <v>60</v>
       </c>
       <c r="F175" s="5">
@@ -5407,20 +5103,20 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A176" s="12">
-        <v>50</v>
-      </c>
-      <c r="B176" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="C176" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="D176" s="12">
-        <v>65</v>
-      </c>
-      <c r="E176" s="12">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="9">
+        <v>50</v>
+      </c>
+      <c r="B176" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="C176" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D176" s="9">
+        <v>65</v>
+      </c>
+      <c r="E176" s="9">
         <v>40</v>
       </c>
       <c r="F176" s="5">
@@ -5433,20 +5129,20 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A177" s="12">
-        <v>50</v>
-      </c>
-      <c r="B177" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="C177" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="D177" s="12">
-        <v>65</v>
-      </c>
-      <c r="E177" s="12">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="9">
+        <v>50</v>
+      </c>
+      <c r="B177" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="C177" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D177" s="9">
+        <v>65</v>
+      </c>
+      <c r="E177" s="9">
         <v>50</v>
       </c>
       <c r="F177" s="5">
@@ -5459,20 +5155,20 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A178" s="12">
-        <v>50</v>
-      </c>
-      <c r="B178" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="C178" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="D178" s="12">
-        <v>65</v>
-      </c>
-      <c r="E178" s="12">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="9">
+        <v>50</v>
+      </c>
+      <c r="B178" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="C178" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D178" s="9">
+        <v>65</v>
+      </c>
+      <c r="E178" s="9">
         <v>60</v>
       </c>
       <c r="F178" s="5">
@@ -5485,20 +5181,20 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A179" s="12">
-        <v>50</v>
-      </c>
-      <c r="B179" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="C179" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="D179" s="12">
-        <v>70</v>
-      </c>
-      <c r="E179" s="12">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="9">
+        <v>50</v>
+      </c>
+      <c r="B179" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="C179" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D179" s="9">
+        <v>70</v>
+      </c>
+      <c r="E179" s="9">
         <v>40</v>
       </c>
       <c r="F179" s="5">
@@ -5511,20 +5207,20 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A180" s="12">
-        <v>50</v>
-      </c>
-      <c r="B180" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="C180" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="D180" s="12">
-        <v>70</v>
-      </c>
-      <c r="E180" s="12">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="9">
+        <v>50</v>
+      </c>
+      <c r="B180" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="C180" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D180" s="9">
+        <v>70</v>
+      </c>
+      <c r="E180" s="9">
         <v>50</v>
       </c>
       <c r="F180" s="5">
@@ -5537,20 +5233,20 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A181" s="12">
-        <v>50</v>
-      </c>
-      <c r="B181" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="C181" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="D181" s="12">
-        <v>70</v>
-      </c>
-      <c r="E181" s="12">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="9">
+        <v>50</v>
+      </c>
+      <c r="B181" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="C181" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D181" s="9">
+        <v>70</v>
+      </c>
+      <c r="E181" s="9">
         <v>60</v>
       </c>
       <c r="F181" s="5">
@@ -5563,20 +5259,20 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A182" s="12">
-        <v>50</v>
-      </c>
-      <c r="B182" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="C182" s="12">
-        <v>2</v>
-      </c>
-      <c r="D182" s="12">
-        <v>60</v>
-      </c>
-      <c r="E182" s="12">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="9">
+        <v>50</v>
+      </c>
+      <c r="B182" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="C182" s="9">
+        <v>2</v>
+      </c>
+      <c r="D182" s="9">
+        <v>60</v>
+      </c>
+      <c r="E182" s="9">
         <v>40</v>
       </c>
       <c r="F182" s="5">
@@ -5589,20 +5285,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A183" s="12">
-        <v>50</v>
-      </c>
-      <c r="B183" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="C183" s="12">
-        <v>2</v>
-      </c>
-      <c r="D183" s="12">
-        <v>60</v>
-      </c>
-      <c r="E183" s="12">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="9">
+        <v>50</v>
+      </c>
+      <c r="B183" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="C183" s="9">
+        <v>2</v>
+      </c>
+      <c r="D183" s="9">
+        <v>60</v>
+      </c>
+      <c r="E183" s="9">
         <v>50</v>
       </c>
       <c r="F183" s="5">
@@ -5615,20 +5311,20 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A184" s="12">
-        <v>50</v>
-      </c>
-      <c r="B184" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="C184" s="12">
-        <v>2</v>
-      </c>
-      <c r="D184" s="12">
-        <v>60</v>
-      </c>
-      <c r="E184" s="12">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="9">
+        <v>50</v>
+      </c>
+      <c r="B184" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="C184" s="9">
+        <v>2</v>
+      </c>
+      <c r="D184" s="9">
+        <v>60</v>
+      </c>
+      <c r="E184" s="9">
         <v>60</v>
       </c>
       <c r="F184" s="5">
@@ -5641,20 +5337,20 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A185" s="12">
-        <v>50</v>
-      </c>
-      <c r="B185" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="C185" s="12">
-        <v>2</v>
-      </c>
-      <c r="D185" s="12">
-        <v>65</v>
-      </c>
-      <c r="E185" s="12">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="9">
+        <v>50</v>
+      </c>
+      <c r="B185" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="C185" s="9">
+        <v>2</v>
+      </c>
+      <c r="D185" s="9">
+        <v>65</v>
+      </c>
+      <c r="E185" s="9">
         <v>40</v>
       </c>
       <c r="F185" s="5">
@@ -5667,20 +5363,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A186" s="12">
-        <v>50</v>
-      </c>
-      <c r="B186" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="C186" s="12">
-        <v>2</v>
-      </c>
-      <c r="D186" s="12">
-        <v>65</v>
-      </c>
-      <c r="E186" s="12">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="9">
+        <v>50</v>
+      </c>
+      <c r="B186" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="C186" s="9">
+        <v>2</v>
+      </c>
+      <c r="D186" s="9">
+        <v>65</v>
+      </c>
+      <c r="E186" s="9">
         <v>50</v>
       </c>
       <c r="F186" s="5">
@@ -5693,20 +5389,20 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A187" s="12">
-        <v>50</v>
-      </c>
-      <c r="B187" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="C187" s="12">
-        <v>2</v>
-      </c>
-      <c r="D187" s="12">
-        <v>65</v>
-      </c>
-      <c r="E187" s="12">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="9">
+        <v>50</v>
+      </c>
+      <c r="B187" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="C187" s="9">
+        <v>2</v>
+      </c>
+      <c r="D187" s="9">
+        <v>65</v>
+      </c>
+      <c r="E187" s="9">
         <v>60</v>
       </c>
       <c r="F187" s="5">
@@ -5719,20 +5415,20 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A188" s="12">
-        <v>50</v>
-      </c>
-      <c r="B188" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="C188" s="12">
-        <v>2</v>
-      </c>
-      <c r="D188" s="12">
-        <v>70</v>
-      </c>
-      <c r="E188" s="12">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="9">
+        <v>50</v>
+      </c>
+      <c r="B188" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="C188" s="9">
+        <v>2</v>
+      </c>
+      <c r="D188" s="9">
+        <v>70</v>
+      </c>
+      <c r="E188" s="9">
         <v>40</v>
       </c>
       <c r="F188" s="5">
@@ -5745,20 +5441,20 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A189" s="12">
-        <v>50</v>
-      </c>
-      <c r="B189" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="C189" s="12">
-        <v>2</v>
-      </c>
-      <c r="D189" s="12">
-        <v>70</v>
-      </c>
-      <c r="E189" s="12">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="9">
+        <v>50</v>
+      </c>
+      <c r="B189" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="C189" s="9">
+        <v>2</v>
+      </c>
+      <c r="D189" s="9">
+        <v>70</v>
+      </c>
+      <c r="E189" s="9">
         <v>50</v>
       </c>
       <c r="F189" s="5">
@@ -5771,20 +5467,20 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A190" s="12">
-        <v>50</v>
-      </c>
-      <c r="B190" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="C190" s="12">
-        <v>2</v>
-      </c>
-      <c r="D190" s="12">
-        <v>70</v>
-      </c>
-      <c r="E190" s="12">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="9">
+        <v>50</v>
+      </c>
+      <c r="B190" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="C190" s="9">
+        <v>2</v>
+      </c>
+      <c r="D190" s="9">
+        <v>70</v>
+      </c>
+      <c r="E190" s="9">
         <v>60</v>
       </c>
       <c r="F190" s="5">
@@ -5797,20 +5493,20 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A191" s="12">
-        <v>50</v>
-      </c>
-      <c r="B191" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="C191" s="12">
-        <v>1</v>
-      </c>
-      <c r="D191" s="12">
-        <v>60</v>
-      </c>
-      <c r="E191" s="12">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="9">
+        <v>50</v>
+      </c>
+      <c r="B191" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C191" s="9">
+        <v>1</v>
+      </c>
+      <c r="D191" s="9">
+        <v>60</v>
+      </c>
+      <c r="E191" s="9">
         <v>40</v>
       </c>
       <c r="F191" s="5">
@@ -5823,20 +5519,20 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A192" s="12">
-        <v>50</v>
-      </c>
-      <c r="B192" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="C192" s="12">
-        <v>1</v>
-      </c>
-      <c r="D192" s="12">
-        <v>60</v>
-      </c>
-      <c r="E192" s="12">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="9">
+        <v>50</v>
+      </c>
+      <c r="B192" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C192" s="9">
+        <v>1</v>
+      </c>
+      <c r="D192" s="9">
+        <v>60</v>
+      </c>
+      <c r="E192" s="9">
         <v>50</v>
       </c>
       <c r="F192" s="5">
@@ -5849,20 +5545,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A193" s="12">
-        <v>50</v>
-      </c>
-      <c r="B193" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="C193" s="12">
-        <v>1</v>
-      </c>
-      <c r="D193" s="12">
-        <v>60</v>
-      </c>
-      <c r="E193" s="12">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="9">
+        <v>50</v>
+      </c>
+      <c r="B193" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C193" s="9">
+        <v>1</v>
+      </c>
+      <c r="D193" s="9">
+        <v>60</v>
+      </c>
+      <c r="E193" s="9">
         <v>60</v>
       </c>
       <c r="F193" s="5">
@@ -5875,20 +5571,20 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A194" s="12">
-        <v>50</v>
-      </c>
-      <c r="B194" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="C194" s="12">
-        <v>1</v>
-      </c>
-      <c r="D194" s="12">
-        <v>65</v>
-      </c>
-      <c r="E194" s="12">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="9">
+        <v>50</v>
+      </c>
+      <c r="B194" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C194" s="9">
+        <v>1</v>
+      </c>
+      <c r="D194" s="9">
+        <v>65</v>
+      </c>
+      <c r="E194" s="9">
         <v>40</v>
       </c>
       <c r="F194" s="5">
@@ -5901,20 +5597,20 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A195" s="12">
-        <v>50</v>
-      </c>
-      <c r="B195" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="C195" s="12">
-        <v>1</v>
-      </c>
-      <c r="D195" s="12">
-        <v>65</v>
-      </c>
-      <c r="E195" s="12">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="9">
+        <v>50</v>
+      </c>
+      <c r="B195" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C195" s="9">
+        <v>1</v>
+      </c>
+      <c r="D195" s="9">
+        <v>65</v>
+      </c>
+      <c r="E195" s="9">
         <v>50</v>
       </c>
       <c r="F195" s="5">
@@ -5927,20 +5623,20 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A196" s="12">
-        <v>50</v>
-      </c>
-      <c r="B196" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="C196" s="12">
-        <v>1</v>
-      </c>
-      <c r="D196" s="12">
-        <v>65</v>
-      </c>
-      <c r="E196" s="12">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="9">
+        <v>50</v>
+      </c>
+      <c r="B196" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C196" s="9">
+        <v>1</v>
+      </c>
+      <c r="D196" s="9">
+        <v>65</v>
+      </c>
+      <c r="E196" s="9">
         <v>60</v>
       </c>
       <c r="F196" s="5">
@@ -5953,20 +5649,20 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A197" s="12">
-        <v>50</v>
-      </c>
-      <c r="B197" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="C197" s="12">
-        <v>1</v>
-      </c>
-      <c r="D197" s="12">
-        <v>70</v>
-      </c>
-      <c r="E197" s="12">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="9">
+        <v>50</v>
+      </c>
+      <c r="B197" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C197" s="9">
+        <v>1</v>
+      </c>
+      <c r="D197" s="9">
+        <v>70</v>
+      </c>
+      <c r="E197" s="9">
         <v>40</v>
       </c>
       <c r="F197" s="5">
@@ -5979,20 +5675,20 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A198" s="12">
-        <v>50</v>
-      </c>
-      <c r="B198" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="C198" s="12">
-        <v>1</v>
-      </c>
-      <c r="D198" s="12">
-        <v>70</v>
-      </c>
-      <c r="E198" s="12">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="9">
+        <v>50</v>
+      </c>
+      <c r="B198" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C198" s="9">
+        <v>1</v>
+      </c>
+      <c r="D198" s="9">
+        <v>70</v>
+      </c>
+      <c r="E198" s="9">
         <v>50</v>
       </c>
       <c r="F198" s="5">
@@ -6005,20 +5701,20 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A199" s="12">
-        <v>50</v>
-      </c>
-      <c r="B199" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="C199" s="12">
-        <v>1</v>
-      </c>
-      <c r="D199" s="12">
-        <v>70</v>
-      </c>
-      <c r="E199" s="12">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="9">
+        <v>50</v>
+      </c>
+      <c r="B199" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C199" s="9">
+        <v>1</v>
+      </c>
+      <c r="D199" s="9">
+        <v>70</v>
+      </c>
+      <c r="E199" s="9">
         <v>60</v>
       </c>
       <c r="F199" s="5">
@@ -6031,20 +5727,20 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A200" s="12">
-        <v>50</v>
-      </c>
-      <c r="B200" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="C200" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="D200" s="12">
-        <v>60</v>
-      </c>
-      <c r="E200" s="12">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="9">
+        <v>50</v>
+      </c>
+      <c r="B200" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C200" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D200" s="9">
+        <v>60</v>
+      </c>
+      <c r="E200" s="9">
         <v>40</v>
       </c>
       <c r="F200" s="5">
@@ -6057,20 +5753,20 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A201" s="12">
-        <v>50</v>
-      </c>
-      <c r="B201" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="C201" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="D201" s="12">
-        <v>60</v>
-      </c>
-      <c r="E201" s="12">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="9">
+        <v>50</v>
+      </c>
+      <c r="B201" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C201" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D201" s="9">
+        <v>60</v>
+      </c>
+      <c r="E201" s="9">
         <v>50</v>
       </c>
       <c r="F201" s="5">
@@ -6083,20 +5779,20 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A202" s="12">
-        <v>50</v>
-      </c>
-      <c r="B202" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="C202" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="D202" s="12">
-        <v>60</v>
-      </c>
-      <c r="E202" s="12">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="9">
+        <v>50</v>
+      </c>
+      <c r="B202" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C202" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D202" s="9">
+        <v>60</v>
+      </c>
+      <c r="E202" s="9">
         <v>60</v>
       </c>
       <c r="F202" s="5">
@@ -6109,20 +5805,20 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A203" s="12">
-        <v>50</v>
-      </c>
-      <c r="B203" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="C203" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="D203" s="12">
-        <v>65</v>
-      </c>
-      <c r="E203" s="12">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="9">
+        <v>50</v>
+      </c>
+      <c r="B203" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C203" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D203" s="9">
+        <v>65</v>
+      </c>
+      <c r="E203" s="9">
         <v>40</v>
       </c>
       <c r="F203" s="5">
@@ -6135,20 +5831,20 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A204" s="12">
-        <v>50</v>
-      </c>
-      <c r="B204" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="C204" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="D204" s="12">
-        <v>65</v>
-      </c>
-      <c r="E204" s="12">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="9">
+        <v>50</v>
+      </c>
+      <c r="B204" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C204" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D204" s="9">
+        <v>65</v>
+      </c>
+      <c r="E204" s="9">
         <v>50</v>
       </c>
       <c r="F204" s="5">
@@ -6161,20 +5857,20 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A205" s="12">
-        <v>50</v>
-      </c>
-      <c r="B205" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="C205" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="D205" s="12">
-        <v>65</v>
-      </c>
-      <c r="E205" s="12">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="9">
+        <v>50</v>
+      </c>
+      <c r="B205" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C205" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D205" s="9">
+        <v>65</v>
+      </c>
+      <c r="E205" s="9">
         <v>60</v>
       </c>
       <c r="F205" s="5">
@@ -6187,20 +5883,20 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A206" s="12">
-        <v>50</v>
-      </c>
-      <c r="B206" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="C206" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="D206" s="12">
-        <v>70</v>
-      </c>
-      <c r="E206" s="12">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="9">
+        <v>50</v>
+      </c>
+      <c r="B206" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C206" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D206" s="9">
+        <v>70</v>
+      </c>
+      <c r="E206" s="9">
         <v>40</v>
       </c>
       <c r="F206" s="5">
@@ -6213,20 +5909,20 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A207" s="12">
-        <v>50</v>
-      </c>
-      <c r="B207" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="C207" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="D207" s="12">
-        <v>70</v>
-      </c>
-      <c r="E207" s="12">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="9">
+        <v>50</v>
+      </c>
+      <c r="B207" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C207" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D207" s="9">
+        <v>70</v>
+      </c>
+      <c r="E207" s="9">
         <v>50</v>
       </c>
       <c r="F207" s="5">
@@ -6239,20 +5935,20 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A208" s="12">
-        <v>50</v>
-      </c>
-      <c r="B208" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="C208" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="D208" s="12">
-        <v>70</v>
-      </c>
-      <c r="E208" s="12">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="9">
+        <v>50</v>
+      </c>
+      <c r="B208" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C208" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D208" s="9">
+        <v>70</v>
+      </c>
+      <c r="E208" s="9">
         <v>60</v>
       </c>
       <c r="F208" s="5">
@@ -6265,20 +5961,20 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A209" s="12">
-        <v>50</v>
-      </c>
-      <c r="B209" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="C209" s="12">
-        <v>2</v>
-      </c>
-      <c r="D209" s="12">
-        <v>60</v>
-      </c>
-      <c r="E209" s="12">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="9">
+        <v>50</v>
+      </c>
+      <c r="B209" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C209" s="9">
+        <v>2</v>
+      </c>
+      <c r="D209" s="9">
+        <v>60</v>
+      </c>
+      <c r="E209" s="9">
         <v>40</v>
       </c>
       <c r="F209" s="5">
@@ -6291,20 +5987,20 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A210" s="12">
-        <v>50</v>
-      </c>
-      <c r="B210" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="C210" s="12">
-        <v>2</v>
-      </c>
-      <c r="D210" s="12">
-        <v>60</v>
-      </c>
-      <c r="E210" s="12">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="9">
+        <v>50</v>
+      </c>
+      <c r="B210" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C210" s="9">
+        <v>2</v>
+      </c>
+      <c r="D210" s="9">
+        <v>60</v>
+      </c>
+      <c r="E210" s="9">
         <v>50</v>
       </c>
       <c r="F210" s="5">
@@ -6317,20 +6013,20 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A211" s="12">
-        <v>50</v>
-      </c>
-      <c r="B211" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="C211" s="12">
-        <v>2</v>
-      </c>
-      <c r="D211" s="12">
-        <v>60</v>
-      </c>
-      <c r="E211" s="12">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" s="9">
+        <v>50</v>
+      </c>
+      <c r="B211" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C211" s="9">
+        <v>2</v>
+      </c>
+      <c r="D211" s="9">
+        <v>60</v>
+      </c>
+      <c r="E211" s="9">
         <v>60</v>
       </c>
       <c r="F211" s="5">
@@ -6343,20 +6039,20 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A212" s="12">
-        <v>50</v>
-      </c>
-      <c r="B212" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="C212" s="12">
-        <v>2</v>
-      </c>
-      <c r="D212" s="12">
-        <v>65</v>
-      </c>
-      <c r="E212" s="12">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" s="9">
+        <v>50</v>
+      </c>
+      <c r="B212" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C212" s="9">
+        <v>2</v>
+      </c>
+      <c r="D212" s="9">
+        <v>65</v>
+      </c>
+      <c r="E212" s="9">
         <v>40</v>
       </c>
       <c r="F212" s="5">
@@ -6369,20 +6065,20 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A213" s="12">
-        <v>50</v>
-      </c>
-      <c r="B213" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="C213" s="12">
-        <v>2</v>
-      </c>
-      <c r="D213" s="12">
-        <v>65</v>
-      </c>
-      <c r="E213" s="12">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" s="9">
+        <v>50</v>
+      </c>
+      <c r="B213" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C213" s="9">
+        <v>2</v>
+      </c>
+      <c r="D213" s="9">
+        <v>65</v>
+      </c>
+      <c r="E213" s="9">
         <v>50</v>
       </c>
       <c r="F213" s="5">
@@ -6395,20 +6091,20 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A214" s="12">
-        <v>50</v>
-      </c>
-      <c r="B214" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="C214" s="12">
-        <v>2</v>
-      </c>
-      <c r="D214" s="12">
-        <v>65</v>
-      </c>
-      <c r="E214" s="12">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="9">
+        <v>50</v>
+      </c>
+      <c r="B214" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C214" s="9">
+        <v>2</v>
+      </c>
+      <c r="D214" s="9">
+        <v>65</v>
+      </c>
+      <c r="E214" s="9">
         <v>60</v>
       </c>
       <c r="F214" s="5">
@@ -6421,20 +6117,20 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A215" s="12">
-        <v>50</v>
-      </c>
-      <c r="B215" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="C215" s="12">
-        <v>2</v>
-      </c>
-      <c r="D215" s="12">
-        <v>70</v>
-      </c>
-      <c r="E215" s="12">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="9">
+        <v>50</v>
+      </c>
+      <c r="B215" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C215" s="9">
+        <v>2</v>
+      </c>
+      <c r="D215" s="9">
+        <v>70</v>
+      </c>
+      <c r="E215" s="9">
         <v>40</v>
       </c>
       <c r="F215" s="5">
@@ -6447,20 +6143,20 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A216" s="12">
-        <v>50</v>
-      </c>
-      <c r="B216" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="C216" s="12">
-        <v>2</v>
-      </c>
-      <c r="D216" s="12">
-        <v>70</v>
-      </c>
-      <c r="E216" s="12">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="9">
+        <v>50</v>
+      </c>
+      <c r="B216" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C216" s="9">
+        <v>2</v>
+      </c>
+      <c r="D216" s="9">
+        <v>70</v>
+      </c>
+      <c r="E216" s="9">
         <v>50</v>
       </c>
       <c r="F216" s="5">
@@ -6473,20 +6169,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A217" s="12">
-        <v>50</v>
-      </c>
-      <c r="B217" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="C217" s="12">
-        <v>2</v>
-      </c>
-      <c r="D217" s="12">
-        <v>70</v>
-      </c>
-      <c r="E217" s="12">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" s="9">
+        <v>50</v>
+      </c>
+      <c r="B217" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C217" s="9">
+        <v>2</v>
+      </c>
+      <c r="D217" s="9">
+        <v>70</v>
+      </c>
+      <c r="E217" s="9">
         <v>60</v>
       </c>
       <c r="F217" s="5">
@@ -6499,20 +6195,20 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A218" s="12">
-        <v>50</v>
-      </c>
-      <c r="B218" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="C218" s="12">
-        <v>1</v>
-      </c>
-      <c r="D218" s="12">
-        <v>60</v>
-      </c>
-      <c r="E218" s="12">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" s="9">
+        <v>50</v>
+      </c>
+      <c r="B218" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="C218" s="9">
+        <v>1</v>
+      </c>
+      <c r="D218" s="9">
+        <v>60</v>
+      </c>
+      <c r="E218" s="9">
         <v>40</v>
       </c>
       <c r="F218" s="5">
@@ -6525,20 +6221,20 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A219" s="12">
-        <v>50</v>
-      </c>
-      <c r="B219" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="C219" s="12">
-        <v>1</v>
-      </c>
-      <c r="D219" s="12">
-        <v>60</v>
-      </c>
-      <c r="E219" s="12">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" s="9">
+        <v>50</v>
+      </c>
+      <c r="B219" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="C219" s="9">
+        <v>1</v>
+      </c>
+      <c r="D219" s="9">
+        <v>60</v>
+      </c>
+      <c r="E219" s="9">
         <v>50</v>
       </c>
       <c r="F219" s="5">
@@ -6551,20 +6247,20 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A220" s="12">
-        <v>50</v>
-      </c>
-      <c r="B220" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="C220" s="12">
-        <v>1</v>
-      </c>
-      <c r="D220" s="12">
-        <v>60</v>
-      </c>
-      <c r="E220" s="12">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" s="9">
+        <v>50</v>
+      </c>
+      <c r="B220" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="C220" s="9">
+        <v>1</v>
+      </c>
+      <c r="D220" s="9">
+        <v>60</v>
+      </c>
+      <c r="E220" s="9">
         <v>60</v>
       </c>
       <c r="F220" s="5">
@@ -6577,20 +6273,20 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A221" s="12">
-        <v>50</v>
-      </c>
-      <c r="B221" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="C221" s="12">
-        <v>1</v>
-      </c>
-      <c r="D221" s="12">
-        <v>65</v>
-      </c>
-      <c r="E221" s="12">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" s="9">
+        <v>50</v>
+      </c>
+      <c r="B221" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="C221" s="9">
+        <v>1</v>
+      </c>
+      <c r="D221" s="9">
+        <v>65</v>
+      </c>
+      <c r="E221" s="9">
         <v>40</v>
       </c>
       <c r="F221" s="5">
@@ -6603,20 +6299,20 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A222" s="12">
-        <v>50</v>
-      </c>
-      <c r="B222" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="C222" s="12">
-        <v>1</v>
-      </c>
-      <c r="D222" s="12">
-        <v>65</v>
-      </c>
-      <c r="E222" s="12">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" s="9">
+        <v>50</v>
+      </c>
+      <c r="B222" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="C222" s="9">
+        <v>1</v>
+      </c>
+      <c r="D222" s="9">
+        <v>65</v>
+      </c>
+      <c r="E222" s="9">
         <v>50</v>
       </c>
       <c r="F222" s="5">
@@ -6629,20 +6325,20 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A223" s="12">
-        <v>50</v>
-      </c>
-      <c r="B223" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="C223" s="12">
-        <v>1</v>
-      </c>
-      <c r="D223" s="12">
-        <v>65</v>
-      </c>
-      <c r="E223" s="12">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" s="9">
+        <v>50</v>
+      </c>
+      <c r="B223" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="C223" s="9">
+        <v>1</v>
+      </c>
+      <c r="D223" s="9">
+        <v>65</v>
+      </c>
+      <c r="E223" s="9">
         <v>60</v>
       </c>
       <c r="F223" s="5">
@@ -6655,20 +6351,20 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A224" s="12">
-        <v>50</v>
-      </c>
-      <c r="B224" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="C224" s="12">
-        <v>1</v>
-      </c>
-      <c r="D224" s="12">
-        <v>70</v>
-      </c>
-      <c r="E224" s="12">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" s="9">
+        <v>50</v>
+      </c>
+      <c r="B224" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="C224" s="9">
+        <v>1</v>
+      </c>
+      <c r="D224" s="9">
+        <v>70</v>
+      </c>
+      <c r="E224" s="9">
         <v>40</v>
       </c>
       <c r="F224" s="5">
@@ -6681,20 +6377,20 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A225" s="12">
-        <v>50</v>
-      </c>
-      <c r="B225" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="C225" s="12">
-        <v>1</v>
-      </c>
-      <c r="D225" s="12">
-        <v>70</v>
-      </c>
-      <c r="E225" s="12">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" s="9">
+        <v>50</v>
+      </c>
+      <c r="B225" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="C225" s="9">
+        <v>1</v>
+      </c>
+      <c r="D225" s="9">
+        <v>70</v>
+      </c>
+      <c r="E225" s="9">
         <v>50</v>
       </c>
       <c r="F225" s="5">
@@ -6707,20 +6403,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A226" s="12">
-        <v>50</v>
-      </c>
-      <c r="B226" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="C226" s="12">
-        <v>1</v>
-      </c>
-      <c r="D226" s="12">
-        <v>70</v>
-      </c>
-      <c r="E226" s="12">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" s="9">
+        <v>50</v>
+      </c>
+      <c r="B226" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="C226" s="9">
+        <v>1</v>
+      </c>
+      <c r="D226" s="9">
+        <v>70</v>
+      </c>
+      <c r="E226" s="9">
         <v>60</v>
       </c>
       <c r="F226" s="5">
@@ -6733,20 +6429,20 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A227" s="12">
-        <v>50</v>
-      </c>
-      <c r="B227" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="C227" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="D227" s="12">
-        <v>60</v>
-      </c>
-      <c r="E227" s="12">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" s="9">
+        <v>50</v>
+      </c>
+      <c r="B227" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="C227" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D227" s="9">
+        <v>60</v>
+      </c>
+      <c r="E227" s="9">
         <v>40</v>
       </c>
       <c r="F227" s="5">
@@ -6759,20 +6455,20 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A228" s="12">
-        <v>50</v>
-      </c>
-      <c r="B228" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="C228" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="D228" s="12">
-        <v>60</v>
-      </c>
-      <c r="E228" s="12">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" s="9">
+        <v>50</v>
+      </c>
+      <c r="B228" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="C228" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D228" s="9">
+        <v>60</v>
+      </c>
+      <c r="E228" s="9">
         <v>50</v>
       </c>
       <c r="F228" s="5">
@@ -6785,20 +6481,20 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A229" s="12">
-        <v>50</v>
-      </c>
-      <c r="B229" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="C229" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="D229" s="12">
-        <v>60</v>
-      </c>
-      <c r="E229" s="12">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" s="9">
+        <v>50</v>
+      </c>
+      <c r="B229" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="C229" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D229" s="9">
+        <v>60</v>
+      </c>
+      <c r="E229" s="9">
         <v>60</v>
       </c>
       <c r="F229" s="5">
@@ -6811,20 +6507,20 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A230" s="12">
-        <v>50</v>
-      </c>
-      <c r="B230" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="C230" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="D230" s="12">
-        <v>65</v>
-      </c>
-      <c r="E230" s="12">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" s="9">
+        <v>50</v>
+      </c>
+      <c r="B230" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="C230" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D230" s="9">
+        <v>65</v>
+      </c>
+      <c r="E230" s="9">
         <v>40</v>
       </c>
       <c r="F230" s="5">
@@ -6837,20 +6533,20 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A231" s="12">
-        <v>50</v>
-      </c>
-      <c r="B231" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="C231" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="D231" s="12">
-        <v>65</v>
-      </c>
-      <c r="E231" s="12">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" s="9">
+        <v>50</v>
+      </c>
+      <c r="B231" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="C231" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D231" s="9">
+        <v>65</v>
+      </c>
+      <c r="E231" s="9">
         <v>50</v>
       </c>
       <c r="F231" s="5">
@@ -6863,20 +6559,20 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A232" s="12">
-        <v>50</v>
-      </c>
-      <c r="B232" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="C232" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="D232" s="12">
-        <v>65</v>
-      </c>
-      <c r="E232" s="12">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" s="9">
+        <v>50</v>
+      </c>
+      <c r="B232" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="C232" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D232" s="9">
+        <v>65</v>
+      </c>
+      <c r="E232" s="9">
         <v>60</v>
       </c>
       <c r="F232" s="5">
@@ -6889,20 +6585,20 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A233" s="12">
-        <v>50</v>
-      </c>
-      <c r="B233" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="C233" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="D233" s="12">
-        <v>70</v>
-      </c>
-      <c r="E233" s="12">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" s="9">
+        <v>50</v>
+      </c>
+      <c r="B233" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="C233" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D233" s="9">
+        <v>70</v>
+      </c>
+      <c r="E233" s="9">
         <v>40</v>
       </c>
       <c r="F233" s="5">
@@ -6915,20 +6611,20 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A234" s="12">
-        <v>50</v>
-      </c>
-      <c r="B234" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="C234" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="D234" s="12">
-        <v>70</v>
-      </c>
-      <c r="E234" s="12">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" s="9">
+        <v>50</v>
+      </c>
+      <c r="B234" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="C234" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D234" s="9">
+        <v>70</v>
+      </c>
+      <c r="E234" s="9">
         <v>50</v>
       </c>
       <c r="F234" s="5">
@@ -6941,20 +6637,20 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A235" s="12">
-        <v>50</v>
-      </c>
-      <c r="B235" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="C235" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="D235" s="12">
-        <v>70</v>
-      </c>
-      <c r="E235" s="12">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" s="9">
+        <v>50</v>
+      </c>
+      <c r="B235" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="C235" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D235" s="9">
+        <v>70</v>
+      </c>
+      <c r="E235" s="9">
         <v>60</v>
       </c>
       <c r="F235" s="5">
@@ -6967,20 +6663,20 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A236" s="12">
-        <v>50</v>
-      </c>
-      <c r="B236" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="C236" s="12">
-        <v>2</v>
-      </c>
-      <c r="D236" s="12">
-        <v>60</v>
-      </c>
-      <c r="E236" s="12">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" s="9">
+        <v>50</v>
+      </c>
+      <c r="B236" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="C236" s="9">
+        <v>2</v>
+      </c>
+      <c r="D236" s="9">
+        <v>60</v>
+      </c>
+      <c r="E236" s="9">
         <v>40</v>
       </c>
       <c r="F236" s="5">
@@ -6993,20 +6689,20 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A237" s="12">
-        <v>50</v>
-      </c>
-      <c r="B237" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="C237" s="12">
-        <v>2</v>
-      </c>
-      <c r="D237" s="12">
-        <v>60</v>
-      </c>
-      <c r="E237" s="12">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" s="9">
+        <v>50</v>
+      </c>
+      <c r="B237" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="C237" s="9">
+        <v>2</v>
+      </c>
+      <c r="D237" s="9">
+        <v>60</v>
+      </c>
+      <c r="E237" s="9">
         <v>50</v>
       </c>
       <c r="F237" s="5">
@@ -7019,20 +6715,20 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A238" s="12">
-        <v>50</v>
-      </c>
-      <c r="B238" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="C238" s="12">
-        <v>2</v>
-      </c>
-      <c r="D238" s="12">
-        <v>60</v>
-      </c>
-      <c r="E238" s="12">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" s="9">
+        <v>50</v>
+      </c>
+      <c r="B238" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="C238" s="9">
+        <v>2</v>
+      </c>
+      <c r="D238" s="9">
+        <v>60</v>
+      </c>
+      <c r="E238" s="9">
         <v>60</v>
       </c>
       <c r="F238" s="5">
@@ -7045,20 +6741,20 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A239" s="12">
-        <v>50</v>
-      </c>
-      <c r="B239" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="C239" s="12">
-        <v>2</v>
-      </c>
-      <c r="D239" s="12">
-        <v>65</v>
-      </c>
-      <c r="E239" s="12">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" s="9">
+        <v>50</v>
+      </c>
+      <c r="B239" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="C239" s="9">
+        <v>2</v>
+      </c>
+      <c r="D239" s="9">
+        <v>65</v>
+      </c>
+      <c r="E239" s="9">
         <v>40</v>
       </c>
       <c r="F239" s="5">
@@ -7071,20 +6767,20 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A240" s="12">
-        <v>50</v>
-      </c>
-      <c r="B240" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="C240" s="12">
-        <v>2</v>
-      </c>
-      <c r="D240" s="12">
-        <v>65</v>
-      </c>
-      <c r="E240" s="12">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" s="9">
+        <v>50</v>
+      </c>
+      <c r="B240" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="C240" s="9">
+        <v>2</v>
+      </c>
+      <c r="D240" s="9">
+        <v>65</v>
+      </c>
+      <c r="E240" s="9">
         <v>50</v>
       </c>
       <c r="F240" s="5">
@@ -7097,20 +6793,20 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A241" s="12">
-        <v>50</v>
-      </c>
-      <c r="B241" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="C241" s="12">
-        <v>2</v>
-      </c>
-      <c r="D241" s="12">
-        <v>65</v>
-      </c>
-      <c r="E241" s="12">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" s="9">
+        <v>50</v>
+      </c>
+      <c r="B241" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="C241" s="9">
+        <v>2</v>
+      </c>
+      <c r="D241" s="9">
+        <v>65</v>
+      </c>
+      <c r="E241" s="9">
         <v>60</v>
       </c>
       <c r="F241" s="5">
@@ -7123,20 +6819,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A242" s="12">
-        <v>50</v>
-      </c>
-      <c r="B242" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="C242" s="12">
-        <v>2</v>
-      </c>
-      <c r="D242" s="12">
-        <v>70</v>
-      </c>
-      <c r="E242" s="12">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" s="9">
+        <v>50</v>
+      </c>
+      <c r="B242" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="C242" s="9">
+        <v>2</v>
+      </c>
+      <c r="D242" s="9">
+        <v>70</v>
+      </c>
+      <c r="E242" s="9">
         <v>40</v>
       </c>
       <c r="F242" s="5">
@@ -7149,20 +6845,20 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A243" s="12">
-        <v>50</v>
-      </c>
-      <c r="B243" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="C243" s="12">
-        <v>2</v>
-      </c>
-      <c r="D243" s="12">
-        <v>70</v>
-      </c>
-      <c r="E243" s="12">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" s="9">
+        <v>50</v>
+      </c>
+      <c r="B243" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="C243" s="9">
+        <v>2</v>
+      </c>
+      <c r="D243" s="9">
+        <v>70</v>
+      </c>
+      <c r="E243" s="9">
         <v>50</v>
       </c>
       <c r="F243" s="5">
@@ -7175,20 +6871,20 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A244" s="12">
-        <v>50</v>
-      </c>
-      <c r="B244" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="C244" s="12">
-        <v>2</v>
-      </c>
-      <c r="D244" s="12">
-        <v>70</v>
-      </c>
-      <c r="E244" s="12">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" s="9">
+        <v>50</v>
+      </c>
+      <c r="B244" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="C244" s="9">
+        <v>2</v>
+      </c>
+      <c r="D244" s="9">
+        <v>70</v>
+      </c>
+      <c r="E244" s="9">
         <v>60</v>
       </c>
       <c r="F244" s="5">
@@ -7205,4 +6901,90 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814167BF-AF94-494D-833D-9C6C4451472A}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>